--- a/all_students.xlsx
+++ b/all_students.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QR generation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE569BA4-4A62-4212-8241-86EBB4FF11DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33741427-925E-47B3-AFD6-03D853162378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,45 +25,204 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Dept</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Vicky G</t>
-  </si>
-  <si>
-    <t>Niveditha G</t>
-  </si>
-  <si>
-    <t>Vasumathi B</t>
-  </si>
-  <si>
-    <t>Rithikka J</t>
-  </si>
-  <si>
-    <t>Bavi c</t>
-  </si>
-  <si>
-    <t>Aagash J</t>
-  </si>
-  <si>
-    <t>Harjith H</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="66">
   <si>
     <t>ECA</t>
   </si>
   <si>
-    <t>EEV</t>
+    <t>AADITHYA E R</t>
+  </si>
+  <si>
+    <t>AKASH A</t>
+  </si>
+  <si>
+    <t>ANUSREE M</t>
+  </si>
+  <si>
+    <t>B KAVYASHRI</t>
+  </si>
+  <si>
+    <t>BAKKA VISWANADH REDDY</t>
+  </si>
+  <si>
+    <t>DESI REDDY SANJU PRIYA</t>
+  </si>
+  <si>
+    <t>DEVADHARSHINI T</t>
+  </si>
+  <si>
+    <t>DHARSHAN G</t>
+  </si>
+  <si>
+    <t>DIVYA DHARSHINI S</t>
+  </si>
+  <si>
+    <t>GLADWIN PRASHANTH M S</t>
+  </si>
+  <si>
+    <t>GOKULNATH V</t>
+  </si>
+  <si>
+    <t>GOWTHAM SELVAM</t>
+  </si>
+  <si>
+    <t>GRANDHI KUSUMA LATHA</t>
+  </si>
+  <si>
+    <t>HARINEE S</t>
+  </si>
+  <si>
+    <t>HARSHAN E</t>
+  </si>
+  <si>
+    <t>HEMACHANDRA N V</t>
+  </si>
+  <si>
+    <t>HEMALATHA P</t>
+  </si>
+  <si>
+    <t>JASHWANTH V</t>
+  </si>
+  <si>
+    <t>JONATHAN PREWITT WILFRED</t>
+  </si>
+  <si>
+    <t>K M VISHWA KESAVAN</t>
+  </si>
+  <si>
+    <t>KEERTHIKA MURUGAN</t>
+  </si>
+  <si>
+    <t>KEERTHY J K</t>
+  </si>
+  <si>
+    <t>KOMMALAPATI NAGA VENKATA HARI PRIYA</t>
+  </si>
+  <si>
+    <t>KOMMI SUSHMA</t>
+  </si>
+  <si>
+    <t>KUFRAN S</t>
+  </si>
+  <si>
+    <t>LAVANYA D</t>
+  </si>
+  <si>
+    <t>MASARLA REETHIKA</t>
+  </si>
+  <si>
+    <t>MEGHANA N</t>
+  </si>
+  <si>
+    <t>MOHAMMED HAARIS MOHAMMED LUQUEMAN</t>
+  </si>
+  <si>
+    <t>MOHANASHREE N</t>
+  </si>
+  <si>
+    <t>NARENDRAN V</t>
+  </si>
+  <si>
+    <t>NITHISH G K</t>
+  </si>
+  <si>
+    <t>NITHISH K</t>
+  </si>
+  <si>
+    <t>NITHISH M</t>
+  </si>
+  <si>
+    <t>NIVEDITHA E</t>
+  </si>
+  <si>
+    <t>PEDDAKAPU USHA</t>
+  </si>
+  <si>
+    <t>POOJA V</t>
+  </si>
+  <si>
+    <t>PRANAV MITRA V J</t>
+  </si>
+  <si>
+    <t>PRAVEEN R</t>
+  </si>
+  <si>
+    <t>PRIYADHARSHINI K</t>
+  </si>
+  <si>
+    <t>RITHIKA K</t>
+  </si>
+  <si>
+    <t>RITHIKKA J</t>
+  </si>
+  <si>
+    <t>SAHANA R</t>
+  </si>
+  <si>
+    <t>SAI RITHIKAA V</t>
+  </si>
+  <si>
+    <t>SANDRA PRINCY S</t>
+  </si>
+  <si>
+    <t>SANJAY K</t>
+  </si>
+  <si>
+    <t>SARAN E</t>
+  </si>
+  <si>
+    <t>SATISH KUMAR S</t>
+  </si>
+  <si>
+    <t>SENTHIL A</t>
+  </si>
+  <si>
+    <t>SETHU MADHAVAN S B</t>
+  </si>
+  <si>
+    <t>SRI SUDDHARSHINI A</t>
+  </si>
+  <si>
+    <t>SRUNGAVARAPU AKSHARA BHARATHI</t>
+  </si>
+  <si>
+    <t>TANGA YASWANTH KUMAR</t>
+  </si>
+  <si>
+    <t>VASUMATHI B</t>
+  </si>
+  <si>
+    <t>VIGNESH G</t>
+  </si>
+  <si>
+    <t>VISHAL M</t>
+  </si>
+  <si>
+    <t>VISHAL P</t>
+  </si>
+  <si>
+    <t>YOGESHWARAN H</t>
+  </si>
+  <si>
+    <t>K S SIDDHARTH</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>roll_no</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>dept</t>
+  </si>
+  <si>
+    <t>section</t>
   </si>
 </sst>
 </file>
@@ -381,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G97" sqref="C62:G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -392,119 +551,1028 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>111723109001</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>111723109002</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>111723109003</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>111723109004</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>111723109005</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>111723109006</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>111723109007</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>111723109008</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>111723109009</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>111723109010</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>111723109011</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>111723109012</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>111723109013</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>111723109014</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>111723109015</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>111723109016</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>111723109017</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>111723109018</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>111723109019</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>111723109020</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>111723109021</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>111723109022</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>111723109023</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>111723109024</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>111723109025</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>111723109026</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>111723109027</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>111723109028</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>111723109029</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>111723109030</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>111723109031</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>111723109032</v>
+      </c>
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>111723109033</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>111723109034</v>
+      </c>
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>111723109035</v>
+      </c>
+      <c r="E36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>111723109036</v>
+      </c>
+      <c r="E37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>111723109037</v>
+      </c>
+      <c r="E38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>111723109038</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>111723109039</v>
+      </c>
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>111723109040</v>
+      </c>
+      <c r="E41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>111723109041</v>
+      </c>
+      <c r="E42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>111723109042</v>
+      </c>
+      <c r="E43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>111723109043</v>
+      </c>
+      <c r="E44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>111723109044</v>
+      </c>
+      <c r="E45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>111723109045</v>
+      </c>
+      <c r="E46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>111723109046</v>
+      </c>
+      <c r="E47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>111723109047</v>
+      </c>
+      <c r="E48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>111723109048</v>
+      </c>
+      <c r="E49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>111723109049</v>
+      </c>
+      <c r="E50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>111723109050</v>
+      </c>
+      <c r="E51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>111723109051</v>
+      </c>
+      <c r="E52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>111723109052</v>
+      </c>
+      <c r="E53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>111723109053</v>
+      </c>
+      <c r="E54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>111723109054</v>
+      </c>
+      <c r="E55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56">
         <v>111723109055</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>111723109038</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>111723109054</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>111723109042</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>111723108017</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>111723108018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>111723108019</v>
+      <c r="E56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>111723109056</v>
+      </c>
+      <c r="E57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>111723109057</v>
+      </c>
+      <c r="E58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>111723109058</v>
+      </c>
+      <c r="E59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>111723109059</v>
+      </c>
+      <c r="E60" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>